--- a/scatter_plot.xlsx
+++ b/scatter_plot.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Deal Call Months" sheetId="1" r:id="rId1"/>
-    <sheet name="Base" sheetId="2" r:id="rId2"/>
-    <sheet name="Downside" sheetId="3" r:id="rId3"/>
-    <sheet name="Upside" sheetId="4" r:id="rId4"/>
+    <sheet name="Deal Call Months 2.0" sheetId="2" r:id="rId2"/>
+    <sheet name="Base" sheetId="3" r:id="rId3"/>
+    <sheet name="Downside" sheetId="4" r:id="rId4"/>
+    <sheet name="Upside" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -131,10 +132,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$11</c:f>
+              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -149,60 +150,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$B$2:$B$11</c:f>
+              <c:f>'Deal Call Months'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -229,10 +200,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$11</c:f>
+              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -247,60 +218,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$C$2:$C$11</c:f>
+              <c:f>'Deal Call Months'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -327,10 +268,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$11</c:f>
+              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -345,59 +286,29 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$D$2:$D$11</c:f>
+              <c:f>'Deal Call Months'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -441,6 +352,7 @@
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -531,10 +443,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$11</c:f>
+              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -549,60 +461,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$B$2:$B$11</c:f>
+              <c:f>'Deal Call Months'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,10 +617,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$11</c:f>
+              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -753,60 +635,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$B$2:$B$11</c:f>
+              <c:f>'Deal Call Months'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,10 +791,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$11</c:f>
+              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -957,60 +809,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$B$2:$B$11</c:f>
+              <c:f>'Deal Call Months'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1520,7 +1342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1545,13 +1367,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>35</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1559,10 +1381,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -1573,13 +1395,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1587,13 +1409,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1601,82 +1423,12 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>35</v>
-      </c>
-      <c r="D7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>35</v>
-      </c>
-      <c r="C8">
-        <v>35</v>
-      </c>
-      <c r="D8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>35</v>
-      </c>
-      <c r="D9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>35</v>
-      </c>
-      <c r="D10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>35</v>
-      </c>
-      <c r="D11">
         <v>35</v>
       </c>
     </row>
@@ -1688,7 +1440,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1707,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1715,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1723,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1731,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1739,47 +1503,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1788,9 +1512,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1817,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1825,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1833,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1841,47 +1565,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1890,9 +1574,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1911,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1927,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1935,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1943,46 +1627,6 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
         <v>35</v>
       </c>
     </row>

--- a/scatter_plot.xlsx
+++ b/scatter_plot.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>Sims</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>Deal Call Months</t>
   </si>
 </sst>
 </file>
@@ -164,13 +167,13 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>37</c:v>
@@ -229,19 +232,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>39</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -297,19 +300,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,6 +401,217 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="7"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Results of CLO Simulation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Deal Call Months 2.0'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Deal Call Months 2.0'!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Deal Call Months 2.0'!$B$2:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deal Call Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Simulation Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -475,187 +689,13 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="50020001"/>
-        <c:axId val="50020002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50020001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Simulation Number</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020002"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50020002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="4"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Results of CLO Simulation</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Deal Call Months'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Downside</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Deal Call Months'!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>37</c:v>
@@ -746,7 +786,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="5"/>
+  <c:style val="4"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -775,11 +815,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Deal Call Months'!$D$1</c:f>
+              <c:f>'Deal Call Months'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upside</c:v>
+                  <c:v>Downside</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -823,13 +863,13 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>37</c:v>
@@ -917,6 +957,180 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="5"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Results of CLO Simulation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Deal Call Months'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upside</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Deal Call Months'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50050001"/>
+        <c:axId val="50050002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50050001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Simulation Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50050002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deal Call Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -956,13 +1170,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1023,6 +1237,41 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1370,10 +1619,10 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1381,13 +1630,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1395,13 +1644,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1409,10 +1658,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>36</v>
@@ -1426,10 +1675,10 @@
         <v>37</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1440,13 +1689,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1479,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1487,7 +1845,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1495,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1533,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1541,7 +1899,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1549,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1565,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1603,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1611,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1627,7 +1985,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/scatter_plot.xlsx
+++ b/scatter_plot.xlsx
@@ -164,19 +164,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -232,19 +232,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,16 +303,16 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,88 +442,66 @@
             </a:ln>
           </c:spPr>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Deal Call Months 2.0'!$A$2:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+            <c:strRef>
+              <c:f>'Deal Call Months 2.0'!$A$1:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>Deal Call Months</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months 2.0'!$B$2:$B$44</c:f>
+              <c:f>'Deal Call Months 2.0'!$B$1:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,7 +619,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Deal Call Months'!$B$1</c:f>
+              <c:f>Base!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -657,7 +635,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
+              <c:f>Base!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -681,24 +659,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$B$2:$B$6</c:f>
+              <c:f>Base!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,12 +793,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Deal Call Months'!$C$1</c:f>
+              <c:f>Downside!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Downside</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -831,7 +806,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
+              <c:f>Downside!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -855,7 +830,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$B$2:$B$6</c:f>
+              <c:f>Downside!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -866,13 +841,13 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -989,12 +964,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Deal Call Months'!$D$1</c:f>
+              <c:f>Upside!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Upside</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1005,7 +977,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
+              <c:f>Upside!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1029,24 +1001,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$B$2:$B$6</c:f>
+              <c:f>Upside!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1616,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
         <v>36</v>
-      </c>
-      <c r="C2">
-        <v>38</v>
       </c>
       <c r="D2">
         <v>37</v>
@@ -1630,13 +1602,13 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>37</v>
+      </c>
+      <c r="C3">
         <v>36</v>
       </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
       <c r="D3">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1644,13 +1616,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1658,13 +1630,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1672,13 +1644,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1705,76 +1677,76 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
         <v>35</v>
-      </c>
-      <c r="B2">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1784,22 +1756,22 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1837,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1845,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1853,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1861,7 +1833,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1899,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1907,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1915,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1923,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1969,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1977,7 +1949,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1985,7 +1957,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/scatter_plot.xlsx
+++ b/scatter_plot.xlsx
@@ -8,17 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Deal Call Months" sheetId="1" r:id="rId1"/>
-    <sheet name="Deal Call Months 2.0" sheetId="2" r:id="rId2"/>
-    <sheet name="Base" sheetId="3" r:id="rId3"/>
-    <sheet name="Downside" sheetId="4" r:id="rId4"/>
-    <sheet name="Upside" sheetId="5" r:id="rId5"/>
+    <sheet name="Base" sheetId="2" r:id="rId2"/>
+    <sheet name="Downside" sheetId="3" r:id="rId3"/>
+    <sheet name="Upside" sheetId="4" r:id="rId4"/>
+    <sheet name="Deal Call Months 2.0" sheetId="5" r:id="rId5"/>
+    <sheet name="WA Cost of Funds" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>Sims</t>
   </si>
@@ -33,6 +34,9 @@
   </si>
   <si>
     <t>Deal Call Months</t>
+  </si>
+  <si>
+    <t>WA CoF</t>
   </si>
 </sst>
 </file>
@@ -135,10 +139,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
+              <c:f>'Deal Call Months'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -153,21 +157,36 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$B$2:$B$6</c:f>
+              <c:f>'Deal Call Months'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>36</c:v>
@@ -176,6 +195,21 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
@@ -203,10 +237,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
+              <c:f>'Deal Call Months'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -221,30 +255,60 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$C$2:$C$6</c:f>
+              <c:f>'Deal Call Months'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,10 +335,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$A$2:$A$6</c:f>
+              <c:f>'Deal Call Months'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -289,30 +353,60 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Deal Call Months'!$D$2:$D$6</c:f>
+              <c:f>'Deal Call Months'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -401,195 +495,6 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="7"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Results of CLO Simulation</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Deal Call Months 2.0'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:strRef>
-              <c:f>'Deal Call Months 2.0'!$A$1:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Deal Call Months</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Deal Call Months 2.0'!$B$1:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>36</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="50020001"/>
-        <c:axId val="50020002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50020001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="30"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020002"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50020002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Simulation Number</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
   <c:style val="3"/>
   <c:chart>
     <c:title>
@@ -635,10 +540,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Base!$A$2:$A$6</c:f>
+              <c:f>Base!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -653,21 +558,36 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Base!$B$2:$B$6</c:f>
+              <c:f>Base!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>36</c:v>
@@ -676,6 +596,222 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Simulation Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deal Call Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="4"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Results of CLO Simulation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Downside!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Downside!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Downside!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
@@ -764,7 +900,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="4"/>
+  <c:style val="5"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -793,7 +929,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Downside!$C$1</c:f>
+              <c:f>Upside!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -806,10 +942,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Downside!$A$2:$A$6</c:f>
+              <c:f>Upside!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -824,21 +960,36 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Downside!$B$2:$B$6</c:f>
+              <c:f>Upside!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>34</c:v>
@@ -847,7 +998,22 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,7 +1101,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="5"/>
+  <c:style val="8"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -964,9 +1130,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Upside!$D$1</c:f>
+              <c:f>'Deal Call Months 2.0'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sims</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -977,48 +1146,54 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Upside!$A$2:$A$6</c:f>
+              <c:f>'Deal Call Months 2.0'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Upside!$B$2:$B$6</c:f>
+              <c:f>'Deal Call Months 2.0'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,6 +1206,7 @@
         <c:axId val="50050001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="25"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -1044,7 +1220,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Simulation Number</a:t>
+                  <a:t>Deal Call Month</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1075,7 +1251,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Deal Call Month</a:t>
+                  <a:t>Sim Number</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1085,6 +1261,183 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50050001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="6"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Results of CLO Simulation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'WA Cost of Funds'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sims</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'WA Cost of Funds'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'WA Cost of Funds'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.8158493285291967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.444387876669899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2910317271985645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.868058370949299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.477357175858485</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.08584201344621345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.632980388476749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.896349771020418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5756384158870663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.6571643183777586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50060001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weighted Average Cost of Fund</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50060002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sim Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1142,13 +1495,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1244,6 +1597,41 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1563,7 +1951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1594,7 +1982,7 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1602,13 +1990,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1619,10 +2007,10 @@
         <v>36</v>
       </c>
       <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="D4">
         <v>34</v>
-      </c>
-      <c r="D4">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1633,10 +2021,10 @@
         <v>36</v>
       </c>
       <c r="C5">
+        <v>37</v>
+      </c>
+      <c r="D5">
         <v>33</v>
-      </c>
-      <c r="D5">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1644,13 +2032,83 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>37</v>
+      </c>
+      <c r="C6">
         <v>36</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>35</v>
       </c>
-      <c r="D6">
-        <v>30</v>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1661,7 +2119,313 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1677,101 +2441,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1780,9 +2493,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1790,174 +2503,63 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>0.8158493285291967</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>37</v>
+        <v>2.444387876669899</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4">
-        <v>36</v>
+        <v>0.2910317271985645</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
       <c r="B5">
-        <v>36</v>
+        <v>1.868058370949299</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
       <c r="B6">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
+        <v>2.477357175858485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7">
+        <v>-0.08584201344621345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8">
+        <v>-1.632980388476749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9">
+        <v>2.896349771020418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10">
+        <v>0.5756384158870663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11">
+        <v>-0.6571643183777586</v>
       </c>
     </row>
   </sheetData>
